--- a/biology/Botanique/Château_Puy_Castéra/Château_Puy_Castéra.xlsx
+++ b/biology/Botanique/Château_Puy_Castéra/Château_Puy_Castéra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Puy_Cast%C3%A9ra</t>
+          <t>Château_Puy_Castéra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Château Puy Castéra est un domaine viticole du Bordeaux situé à Cissac-Médoc en Gironde qui donne du vin rouge. C'est un cru bourgeois dans l'AOC Médoc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Puy_Cast%C3%A9ra</t>
+          <t>Château_Puy_Castéra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce domaine tient son nom de deux mots d'ancien français et de latin, « Puy » signifiant tertre et « Castéra » (Castrum) signifiant camp, forteresse.
 Il appartient aux descendants d'Henri Marès, découvreur de l'effet fongicide du soufre sur l'oïdium.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Puy_Cast%C3%A9ra</t>
+          <t>Château_Puy_Castéra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de 28 hectares respecte l'encépagement traditionnel médocain avec une majorité de Cabernet-Sauvignon, du Merlot, du Cabernet-Franc, du Malbec et du Petit-Verdot.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Puy_Cast%C3%A9ra</t>
+          <t>Château_Puy_Castéra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trois vins sont issus de ce vignoble :
 Château Puy Castéra
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Puy_Cast%C3%A9ra</t>
+          <t>Château_Puy_Castéra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
